--- a/Lab 3/Register ALU Table.xlsx
+++ b/Lab 3/Register ALU Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryanmehrotra/Desktop/College/UnderGrad/SummerSemesters/Summer1_2022/Computer Architecture/Lab 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B478F7-0554-604A-93A0-6FBAFAE974EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5318E37-0730-9246-B3A5-DB040882E760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8C3608C1-1439-D24C-A4D2-8E707E80A634}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{8C3608C1-1439-D24C-A4D2-8E707E80A634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,12 +178,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +506,7 @@
   <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,19 +531,19 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -543,7 +552,7 @@
       <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -560,19 +569,19 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -581,7 +590,7 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -598,19 +607,19 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -619,7 +628,7 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -636,19 +645,19 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -657,7 +666,7 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -674,19 +683,19 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -695,7 +704,7 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -712,19 +721,19 @@
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -733,7 +742,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -750,19 +759,19 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -771,7 +780,7 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -788,19 +797,19 @@
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -809,7 +818,7 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -826,19 +835,19 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -847,7 +856,7 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -864,19 +873,19 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -885,7 +894,7 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -902,19 +911,19 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -923,7 +932,7 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -940,19 +949,19 @@
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -961,7 +970,7 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -978,19 +987,19 @@
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -999,7 +1008,7 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1016,19 +1025,19 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1037,7 +1046,7 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1054,19 +1063,19 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1075,7 +1084,7 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1092,19 +1101,19 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1113,7 +1122,7 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1130,19 +1139,19 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1151,7 +1160,7 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
